--- a/biology/Histoire de la zoologie et de la botanique/Camillo_Róndani/Camillo_Róndani.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Camillo_Róndani/Camillo_Róndani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camillo_R%C3%B3ndani</t>
+          <t>Camillo_Róndani</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camillo Róndani (né le 21 novembre 1808 à Parme et mort le 17 septembre 1879 dans la même ville) est un entomologiste italien, spécialiste des diptères (diptérologiste).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camillo_R%C3%B3ndani</t>
+          <t>Camillo_Róndani</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Camillo Róndani enseigne et dirige une école du secondaire à Parme. Il donne également des cours d’agronomie à l'université de la ville. Il participe aux travaux fondateurs de la Société entomologique d’Italie (1869) dont il assure la vice-présidence de 1871 à 1879.
 Róndani est l’auteur de 159 publications dont 101 sur les diptères. Parmi celles-ci, il faut citer Prodromus Dipterologiae Italicae en huit volumes (de 1856 à 1877). Il s’intéresse également à des questions d’entomologie appliquée et notamment aux insectes parasites d’autres insectes.
